--- a/Data/Transitions/19021964Translation.xlsx
+++ b/Data/Transitions/19021964Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="926">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068, 840.0: 0.004316784414945863, 303.0: 0.0002426835451106993, 144.0: 2.570922628730756e-07}</t>
-  </si>
-  <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736, 840.0: 0.004316784414945863, 303.0: 0.00024264276304786082, 144.0: 2.5598599213202017e-07}</t>
+  </si>
+  <si>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
   </si>
   <si>
-    <t>{7.0: 0.8729846404621571}</t>
+    <t>{7.0: 0.8728545550605372}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9833918954386325}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,22 +67,22 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.0003786651141143844, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.00037866993652094233, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
-  </si>
-  <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{679.0: 0.4935636856368564}</t>
+  </si>
+  <si>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -124,7 +124,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -136,40 +136,40 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.00464423766502221}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.004644267467867127}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.11485198190981857}</t>
+    <t>{75.0: 1.0, 917.0: 0.11513761097960876}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
-  </si>
-  <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
+  </si>
+  <si>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899}</t>
   </si>
   <si>
     <t>{83.0: 1.0}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 0.9624619546838011}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 14.0: 0.0002688641098621682, 492.0: 0.0026003154391696127, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 14.0: 0.00026984893800464113, 492.0: 0.0026000821520827133, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9452080012612006, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.10406272321566451}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8959371160388855, 91.0: 0.03813849167117715, 858.0: 0.11121885973409691, 543.0: 0.0012955564095846867}</t>
+    <t>{90.0: 0.945186179595832, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.1034156444923224}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8965842063144022, 91.0: 0.038138650843432466, 858.0: 0.10371055410031664, 543.0: 0.001208441506456401}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.2553326544136883}</t>
+    <t>{97.0: 0.9723237186088487}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.2577610059258017}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.0030689706570926445, 86.0: -0.0013551038561849204}</t>
-  </si>
-  <si>
-    <t>{543.0: -0.00205995733931015, 86.0: -0.000909574070910169, 505.0: 0.009305654974946313}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{543.0: 0.15081441977339646, 86.0: 0.06662308454597138}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.23067153187143186, 86.0: 0.10190039515657803, 505.0: 0.009305654974946313}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -253,16 +253,16 @@
     <t>{141.0: 0.6758285413496921, 762.0: 0.6758285413496921}</t>
   </si>
   <si>
-    <t>{142.0: 0.6799263461575976, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04625027587587877}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9097610131785987}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.005097588962881383, 942.0: 0.03103499664687912, 152.0: 0.000366016192556977}</t>
+    <t>{142.0: 0.6798894445619768, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04275579021694319}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9132382007231626}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.005097367967363957, 942.0: 0.031034664688250113, 152.0: 0.0003660192689772492}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,13 +292,13 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
-  </si>
-  <si>
-    <t>{167.0: 0.9994646680942184, 276.0: 0.33427367053250995}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
+  </si>
+  <si>
+    <t>{167.0: 0.9994646680942184, 276.0: 0.3347597983936734}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -307,85 +307,85 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.639176144307317}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.04943118981305118}</t>
+    <t>{171.0: 0.6418669800018848}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.04700343385884175}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
   </si>
   <si>
-    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.843133003059537e-08}</t>
-  </si>
-  <si>
-    <t>{562.0: 0.3592698740972617, 211.0: 1.4761722271806034e-05}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4140339596940813, 410.0: 0.010166137119917876, 277.0: 7.057845927259817e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5422188141189332, 410.0: 0.014395686970100978, 277.0: 9.99421308738507e-05}</t>
+    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.837401167412974e-08}</t>
+  </si>
+  <si>
+    <t>{562.0: 0.3592698740972617, 211.0: 1.4839699675110984e-05}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.41499950355670423, 410.0: 0.01007542775090648, 277.0: 7.083620274894988e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5482699271655748, 410.0: 0.014277015024410008, 277.0: 0.00010037584070094911}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.05832210449051426, 593.0: 0.04775675345927725, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09, 681.0: 2.7873265846237817e-11}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.153839044522277, 917.0: 0.029035515377299318}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.05829453180140346, 593.0: 0.04764106985907185, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09, 681.0: 2.779949241380559e-11}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7185751362926827, 917.0: 0.01808528564746644}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8519611224855997, 785.0: 0.12570458782894148, 578.0: 0.18188242287177528}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{206.0: 0.8519611224855997, 785.0: 0.1294178423781891, 578.0: 0.18188242287177528}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.00829306274851835}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.00830192132519551}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,43 +394,43 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.17952896245359123}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13360763748597862}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.00616722491106951}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.0045897237913669515}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,19 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -478,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.004275200369087309}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6399709972447439, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.552570936044996e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.0030589631511635878}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6402292990281426, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.561822353323513e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -490,19 +490,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -520,34 +520,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.001550339549744622}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.0463962493164385, 887.0: 0.17934972128858376}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0015671624197870367}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.047005362491287325, 887.0: 0.1804567935058832}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9983219820353371}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -556,13 +556,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655973099295898, 167.0: 0.0005353319057815846}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6420850419838438, 180.0: 0.012852253519766512}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6651112763571226, 167.0: 0.0005353319057815846}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6419369495283576, 180.0: 0.021070398464061755}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103, 277.0: 0.0023258105425374496, 180.0: 4.655443559202107e-05}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913, 277.0: 0.002325274110489172, 180.0: 7.632284149116312e-05}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,25 +583,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.05567802506088436, 917.0: -0.0014010967651924978}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.20206146972586528, 142.0: 0.0020046989289698278, 788.0: 0.026298366265383358}</t>
+    <t>{285.0: 1.0, 311.0: 0.08577298477295446, 917.0: 0.002158756756402493}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.2046585053125296, 142.0: 0.0020049328055839633, 788.0: 0.026172626732387502}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -613,13 +613,13 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.06631936431783429}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.4580815669688797, 297.0: 0.004759120184553127, 476.0: 8.123250477002565e-05, 595.0: 7.661043602810842e-06, 534.0: 2.6461281525454275e-05}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.01300180256407217, 291.0: 0.0008901874285448801}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.06593118047976738}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.45540165704911717, 297.0: 0.004786184211172354, 476.0: 8.204471701047029e-05, 595.0: 7.690805364869404e-06, 534.0: 2.7816686311607476e-05}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013004144539068464, 291.0: 0.0008933313478388279}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
@@ -628,40 +628,40 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.0009172755822364778, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009133285356518292, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31806895491343257, 909.0: 0.4033413912865418, 44.0: 7.58045374345196e-05}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3181056226324393, 909.0: 0.4033598044965117, 44.0: 7.498265547510774e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: -0.12142007238618385, 917.0: -0.003055447287573368}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.17223792870653248, 917.0: 0.004334928920664521}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -670,31 +670,31 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.7446673455863116, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.7422389940741984, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.014908595742082748, 595.0: 0.0014060307799214982, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.23486628352579336, 782.0: 0.016145368846451156, 930.0: 0.03466123138963604}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29179797477582636}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.01488053984211376, 595.0: 0.0013948897603641751, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.334621627080593, 782.0: 0.023097807016809496, 930.0: 0.04920380707209685}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.29439526531131543}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -703,16 +703,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4158673903591414, 782.0: 0.028587893961467842, 930.0: 0.061373116772034574}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.3134363108230402, 782.0: 0.021635455791109502, 930.0: 0.046088652134287277}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -721,7 +721,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -730,58 +730,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545, 922.0: 0.06848441752911817, 887.0: 0.0027523278545498104, 834.0: 1.3501349733811965e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463, 922.0: 0.06856944170596174, 887.0: 0.0027489110219788312, 834.0: 1.418764392274871e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9933648160267351}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9933774668066054}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
-  </si>
-  <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9854815631925835, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
+  </si>
+  <si>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9869660646445744, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -796,34 +796,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9493412936702375, 291.0: 0.06499804014552697}</t>
+    <t>{443.0: 0.9495122956187572, 291.0: 0.06522759696236087}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.07798943661869868}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08039708826633918}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.07737177550505259}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.08039560246346297}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -841,25 +841,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9913888345564824, 108.0: 0.008707164631843895, 144.0: 7.151847027037805e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9914132703652688, 108.0: 0.00870247975337508, 144.0: 7.147838666626667e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -868,19 +868,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19531969272855593, 180.0: 0.003909603937500637}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.19481164714513766, 180.0: 0.0063943336394704925}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18598019855596482, 298.0: 0.00019010513430182239, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{534.0: 0.17503098432337108, 298.0: 0.00019241673586831533, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 1.0, 530.0: 1.0, 680.0: 0.0007025194449887987, 481.0: 1.2977595436825632e-05}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 1.0, 530.0: 1.0, 680.0: 0.0007025194449887987, 481.0: 1.2977397881072971e-05}</t>
   </si>
   <si>
     <t>{531.0: 0.9893040072310937, 262.0: 0.02188001834926148, 442.0: 0.0020783697630905327}</t>
@@ -907,37 +907,37 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44172514845365357, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 595.0: 9.316750718904286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.46654379136126534, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 595.0: 9.242927226949286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.07904502965307865}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.6637060410377729}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.07455484978503368}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.6681926205097679}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -952,7 +952,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.6407301259027383, 211.0: 0.02935737516805425}</t>
+    <t>{562.0: 0.6407301259027383, 211.0: 0.02951245272887697}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,25 +985,25 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.6176277135902498}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7086945288911954, 144.0: 0.024667481077092348, 303.0: 0.08541659767396019}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.6167546233569814}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7088793209528648, 144.0: 0.024689258787754288, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996, 434.0: 0.014278686035726003}</t>
+    <t>{585.0: 0.738502526649488, 434.0: 0.01281650453822409}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -1012,10 +1012,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,22 +1024,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.22700102159895758, 686.0: 0.0016654057694474836, 171.0: 0.0012702656154636076}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.4752051152692574, 686.0: 0.0034863690703496463, 171.0: 0.0026591806238009013, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 14.0: 1.4664395685542368e-06, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9041378805394085, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.34903027661157165, 686.0: 0.0025338360963508516, 171.0: 0.0019604600211132086}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.35349335774018636, 686.0: 0.0025662364834301977, 171.0: 0.001985528597422912, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 14.0: 1.4718110216540514e-06, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9046919016314485, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1048,25 +1048,25 @@
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 1.0, 423.0: 0.0008835519329335636, 577.0: 0.0004847309743092584}</t>
+    <t>{602.0: 1.0, 423.0: 0.0008835631852155321, 577.0: 0.0004847309743092584}</t>
   </si>
   <si>
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
-  </si>
-  <si>
-    <t>{607.0: 0.9993920972644377, 276.0: 0.0001289411065702988}</t>
-  </si>
-  <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{606.0: 0.9962612248325914}</t>
+  </si>
+  <si>
+    <t>{607.0: 0.9993920972644377, 276.0: 0.00012884687519226928}</t>
+  </si>
+  <si>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1078,16 +1078,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.008531428771375069, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.008395821983903377, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1111,7 +1111,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1123,10 +1123,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.48188504494688095, 617.0: 0.09160405235371184}</t>
@@ -1135,7 +1135,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1147,25 +1147,25 @@
     <t>{636.0: 0.8608934040407304}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9933624952141614, 481.0: 0.018350319947671445}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.972343307325655, 171.0: 0.0032284909272678277, 90.0: 0.0006682613886302803, 420.0: 1.0598936004283014e-06, 212.0: 0.007649302086290667}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9933624952141614, 481.0: 0.018350040603837183}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.972245213144219, 171.0: 0.0032420823898154415, 90.0: 0.0006682459607282925, 420.0: 1.0581612182455979e-06, 212.0: 0.0076493270976099636}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1174,10 +1174,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5133392922561841}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 534.0: 0.04730432785716252, 174.0: 0.006537175659195088}</t>
+    <t>{686.0: 0.5136687352674095}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 534.0: 0.044612709947814626, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1189,28 +1189,28 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.47222139305615607, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10262116591668767, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.47388238887602785, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10386899780065838, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2019759292009454}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7701747217189165}</t>
+    <t>{698.0: 0.42302894312137684}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5490852085342203}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,31 +1219,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21312395215500024}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21378461631512685}</t>
   </si>
   <si>
     <t>{729.0: 0.8666726683471372}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.7743490239264605, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.7743475758866464, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1252,25 +1252,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1282,7 +1282,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14691728847962096, 476.0: 0.1580378380300849, 595.0: 0.014904560329268492, 534.0: 0.05148042320777129}</t>
+    <t>{298.0: 0.14869571997779224, 476.0: 0.15961799694386994, 595.0: 0.014962461837353426, 534.0: 0.05411736321923234}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1312,10 +1312,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.08531777884783316, 762.0: 0.08531777884783316}</t>
@@ -1333,16 +1333,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005594301533215271}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005585784852501463}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668, 108.0: 7.563009847926788e-05, 144.0: 6.212066933768134e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04559924634564226}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121, 108.0: 7.537304878562167e-05, 144.0: 6.19081466202159e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04559989957558462}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1354,73 +1354,73 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.01770244382228652, 184.0: 0.008192684577809846, 593.0: 0.0012618944109774287, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06, 681.0: 7.94241375218587e-09}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.017504494354900122, 184.0: 0.008208994008638804, 593.0: 0.0012618726865326077, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06, 681.0: 7.92139220675492e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7312174064104665, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.7312174064104665, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0693266940235475, 180.0: 0.0013876732660287297}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.0698347001839775, 180.0: 0.0022921954571641172}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5258853831294269, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9726485174093751, 486.0: 0.8429827244967432, 604.0: 0.406643068799627, 980.0: 0.30157180612251394}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005372966926216832}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5258548522119905, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9719706112379355, 486.0: 0.8407936948063115, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005360300071658137}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.04766815738700683, 144.0: 5.0498332896964115e-05}</t>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.04766014693129561, 144.0: 5.028103803351049e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1432,25 +1432,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.127015359537843}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.1271454449394628}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1459,10 +1459,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.0007467603509694502}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.0035956064320394844}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1471,13 +1471,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700430574810726, 253.0: 0.0011020445024359745, 490.0: 0.032209337000882715, 619.0: 0.0001431947985895543, 887.0: 1.2226180526476166e-06}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.6741299452051571, 253.0: 0.0011087663572453242, 490.0: 0.032521737688368406, 619.0: 0.0001431947985895543, 887.0: 1.2031845778021464e-06}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1486,13 +1486,13 @@
     <t>{886.0: 0.3994880704794707, 531.0: 0.010695992768906298, 262.0: 0.0002365587487128925, 442.0: 2.2470573043920794e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.7457304325437474, 834.0: 0.000365810097070382, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.2210067384085172}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{887.0: 0.7448045771376064, 834.0: 0.00038440478195918737, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.22100815664548643}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1504,64 +1504,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025011973259636902, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.394597138987593}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.25724892930914856, 687.0: 0.006852159468438538, 534.0: 0.0003263731589559614, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.024959772235402113, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.3919816901909587}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.2572525297051986, 687.0: 0.006852159468438538, 534.0: 0.00030780251479780105, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.9545783908574367, 110.0: 0.13207178973473804}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.27665170598155925, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7269507306257114}</t>
+    <t>{914.0: 0.9545783908574367, 110.0: 0.13212383277978257}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2741594620673877, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7266651015559211}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.8452990209717958, 887.0: 0.03397181614131654, 834.0: 1.6664634267987505e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.8463484692410206, 887.0: 0.03392964238367531, 834.0: 1.7511723032026722e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1570,7 +1570,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1594642834294153e-06}</t>
+    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1937479066863588e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1579,49 +1579,49 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.13759038269961094, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.1338771281503633, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1630,16 +1630,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1651,28 +1651,28 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.10598357914895444, 729.0: 0.04985440713524362}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.07807107216517041, 729.0: 0.03672443456299134}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1217684170457661, 729.0: 0.05727955489294922}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.06228887093494651, 729.0: 0.029300527086568978}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493103, 886.0: 0.006416426050689767}</t>
   </si>
   <si>
-    <t>{486.0: 0.8716921836610175, 837.0: 0.11732515737944467, 840.0: 0.01027127339914509, 303.0: 0.0007097470523839013, 144.0: 1.6385080085815344e-06}</t>
-  </si>
-  <si>
-    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.345816741287854e-05, 152.0: 2.3542118150070355e-06}</t>
+    <t>{486.0: 0.8716921836610175, 837.0: 0.11732515737944467, 840.0: 0.01027127339914509, 303.0: 0.0007097401042003646, 144.0: 1.6454561921183109e-06}</t>
+  </si>
+  <si>
+    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.345816741287854e-05, 152.0: 2.354211815007035e-06}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364502, 403.0: 0.003748353763549792}</t>
@@ -1693,7 +1693,7 @@
     <t>{11.0: 0.9970355731225299, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123917, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436297, 178.0: 0.000640674146945109, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1714,10 +1714,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8360594187381457, 90.0: 0.060501317216433745, 246.0: 0.06083604370162686, 681.0: 0.024047541953283215, 741.0: 0.007682407370618042, 789.0: 0.010873271019892425}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8360594187381457, 90.0: 0.060501317216433745, 246.0: 0.06083530380575233, 681.0: 0.024047541953283215, 741.0: 0.00768240737061804, 789.0: 0.01087401091576699}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966838, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1735,10 +1735,10 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.2266840904512216}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671375}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -1747,7 +1747,7 @@
     <t>{79.0: 0.9973266236829688, 271.0: 0.00267337631703098}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699432, 172.0: 0.0014617321300571375}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203815}</t>
   </si>
   <si>
     <t>{82.0: 0.9987155701441417, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
@@ -1756,7 +1756,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680973, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680973, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044906, 165.0: 0.000476246703126895, 433.0: 0.00010498729238260625}</t>
@@ -1768,7 +1768,7 @@
     <t>{89.0: 0.998564249820531, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
+    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
   </si>
   <si>
     <t>{91.0: 0.9626363760350688, 92.0: 0.0373636239649309}</t>
@@ -1795,28 +1795,28 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.659115610624385, 86.0: 0.323545276337936, 505.0: 0.017339113037679228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511284, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.7783443228422291, 110.0: 0.22165567715777137}</t>
+    <t>{543.0: 0.6707439927095042, 86.0: 0.329256007290496}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6591138868005696, 86.0: 0.32354700016175114, 505.0: 0.017339113037679228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511278, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777137}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{140.0: 0.9858227848101265, 141.0: 0.013356338268367214, 762.0: 0.0008208769215062112}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009005, 762.0: 0.05790113999909879}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273644}</t>
+    <t>{140.0: 0.9858227848101265, 141.0: 0.0133575420300966, 762.0: 0.0008196731597768281}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943129, 762.0: 0.05781623180568695}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187106, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1831,13 +1831,13 @@
     <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713156, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542518}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 276.0: 0.5808984820566816}</t>
@@ -1852,10 +1852,10 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9461440454101393, 404.0: 0.006089422657506929, 185.0: 0.037415551601674576, 700.0: 0.00087801950024149, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065168e-08, 831.0: 0.001466275659824047}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.4807882849295461}</t>
+    <t>{173.0: 0.9461505286921809, 404.0: 0.006082939375465399, 185.0: 0.037415551601674576, 700.0: 0.00087801950024149, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065168e-08, 831.0: 0.001466275659824047}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.4786506064287579}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747692, 399.0: 0.01814484592523072}</t>
@@ -1867,22 +1867,22 @@
     <t>{562.0: 0.9999621514340225, 211.0: 3.784856597773307e-05}</t>
   </si>
   <si>
-    <t>{178.0: 0.978768843840004, 14.0: 0.007491382546310048, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5428960109589418, 180.0: 0.44676854643963004, 410.0: 0.010246425442575776, 277.0: 8.901715885237608e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291383, 410.0: 0.0253040571703813, 277.0: 0.00021983230048070316}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477969, 277.0: 0.001930680192132688, 180.0: 7.261936007094297e-05}</t>
+    <t>{178.0: 0.9787135366093608, 14.0: 0.00749095923121892, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5438355769225947, 180.0: 0.445786674194597, 410.0: 0.010220365869510065, 277.0: 0.00015738301329806163}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453893, 410.0: 0.0253040571703813, 277.0: 0.00038965618422933583}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876847, 277.0: 0.0019382174506610637, 180.0: 7.290286165408993e-05}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6112571058524545, 171.0: 0.16537841045414448, 593.0: 0.20810706699212925, 778.0: 0.01522994662320334, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103237e-09, 681.0: 9.788118795062518e-11}</t>
+    <t>{184.0: 0.6109783003190128, 171.0: 0.1654935010893701, 593.0: 0.20824956668722608, 778.0: 0.015251161826322662, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103239e-09, 681.0: 9.788118795062518e-11}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990523, 543.0: 0.012701421800947868}</t>
@@ -1897,13 +1897,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.994614809274495, 857.0: 0.005385190725504864}</t>
+    <t>{204.0: 0.9946682464454973, 857.0: 0.0053317535545023735}</t>
   </si>
   <si>
     <t>{206.0: 0.683704517870523, 785.0: 0.1180702752701411, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663015, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1927,19 +1927,19 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680916, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341756}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310284, 999.0: 0.09984639016897078}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345016, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310297, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310293, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1951,10 +1951,10 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9996664752704238, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9996683166600523, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{230.0: 1.0}</t>
@@ -1966,22 +1966,22 @@
     <t>{102.0: 0.9953091684434969, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947863}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994584743592915, 46.0: 0.0004820751577681768, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.429706384768369e-06, 789.0: 6.269570947818603e-06}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994584739326644, 46.0: 0.0004820751577681768, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.4297063847683686e-06, 789.0: 6.269997574697588e-06}</t>
   </si>
   <si>
     <t>{249.0: 1.0}</t>
@@ -1996,7 +1996,7 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740354, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740369, 973.0: 0.10017350600506646, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{260.0: 0.9678010679843784, 707.0: 0.03219893201562126}</t>
@@ -2005,16 +2005,16 @@
     <t>{262.0: 0.999289772727273, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 0.9681191395477114, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
-    <t>{834.0: 0.2854904034012877, 887.0: 0.7145095965987118}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{834.0: 0.2854902606045079, 887.0: 0.7145097393954924}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -2029,13 +2029,13 @@
     <t>{276.0: 0.9994319468243579, 167.0: 0.0005680531756420232}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 180.0: 0.03624987585658952}</t>
+    <t>{277.0: 0.96375012414341, 180.0: 0.03624987585658955}</t>
   </si>
   <si>
     <t>{281.0: 0.961915753029429, 599.0: 0.009040200038468935, 621.0: 0.02904404693210232}</t>
   </si>
   <si>
-    <t>{182.0: 0.9896907216494847, 277.0: 0.009935568290138256, 180.0: 0.0003737100603772117}</t>
+    <t>{182.0: 0.9896907216494847, 277.0: 0.009935568290138249, 180.0: 0.0003737100603772118}</t>
   </si>
   <si>
     <t>{285.0: 0.9141291469502109, 311.0: 0.08430248869049502, 917.0: 0.0015683643592939891}</t>
@@ -2056,19 +2056,19 @@
     <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951959}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9858971704678535, 297.0: 0.013916655611733712, 476.0: 8.672728879463211e-05, 595.0: 1.581102944052829e-05, 534.0: 8.363560217789607e-05}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9843037974683544, 443.0: 0.014031863814927976, 291.0: 0.0016643387167175902}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9858986381598601, 297.0: 0.013915187919726558, 476.0: 8.673852620006252e-05, 595.0: 1.579979203509793e-05, 534.0: 8.363560217789607e-05}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9843037974683544, 443.0: 0.014031863814927976, 291.0: 0.00166433871671759}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -2077,13 +2077,13 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.31786658877294144, 909.0: 0.6821038549456095, 44.0: 2.9556281449005184e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.885865492352508, 204.0: 0.0409854440794062, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015056, 887.0: 0.1500728508984944}</t>
+    <t>{142.0: 0.3178664336572601, 909.0: 0.6821038549456095, 44.0: 2.9711397130311997e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.888098460407178, 204.0: 0.04103334546343127, 426.0: 0.07086273685860801, 857.0: 5.45727078249987e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.850363196125908, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823575, 917.0: 0.018264222417641886}</t>
@@ -2092,10 +2092,10 @@
     <t>{226.0: 0.9417289819392752, 5.0: 0.05300183025736112, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452713, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{98.0: 0.9087606539052677, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -2104,25 +2104,25 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.968119139547712, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 0.9931387057715592, 16.0: 0.006861294228440737}</t>
   </si>
   <si>
-    <t>{402.0: 0.9876183457230787, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647474, 141.0: 0.0018774389398184543, 762.0: 0.00011538688720426232}</t>
+    <t>{402.0: 0.9876183457230787, 476.0: 0.00878804806046156, 595.0: 0.0016007803894371245, 141.0: 0.0018776081470592131, 762.0: 0.00011521767996350527}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052391, 782.0: 0.024509507908537877, 930.0: 0.1908309337862231}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.36474474874689916, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{404.0: 0.7846102713864083, 782.0: 0.02453187650824767, 930.0: 0.19085785210534428}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2131,22 +2131,22 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052388, 782.0: 0.024509507908537877, 930.0: 0.1908309337862232}</t>
+    <t>{404.0: 0.7846102713864077, 782.0: 0.024531876508247653, 930.0: 0.19085785210534428}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593293}</t>
   </si>
   <si>
-    <t>{415.0: 0.87311320754717, 277.0: 0.12228716197857423, 180.0: 0.004599630474255935}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035863, 887.0: 0.002013998002050393, 834.0: 1.7746813316878173e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864623}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.0001609375473236561, 681.0: 3.563192929675043e-06}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12246045507537903, 180.0: 0.004606148609080106}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035863, 887.0: 0.0020140238148212953, 834.0: 1.7488685607857592e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.014739229024943313}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365612, 681.0: 3.563192929675043e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2155,7 +2155,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.04756292440600669, 434.0: 0.0003999430514455907}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957106, 434.0: 0.00039932521974922795}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2167,7 +2167,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243409, 783.0: 0.00018839487565938212}</t>
+    <t>{431.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2179,25 +2179,25 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.6936304352368651, 585.0: 0.3063695647631346}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
-  </si>
-  <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.01136363636363637}</t>
+    <t>{434.0: 0.6936304352368651, 585.0: 0.30636956476313476}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796463382614096e-06, 172.0: 7.027153842396636e-09}</t>
+  </si>
+  <si>
+    <t>{441.0: 0.9886363636363638, 782.0: 0.01136363636363636}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413791, 291.0: 0.10603448275862068}</t>
+    <t>{443.0: 0.8939655172413791, 291.0: 0.10603448275862067}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352776, 595.0: 0.15419630156472264}</t>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931059}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -2206,25 +2206,25 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343363, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380016, 944.0: 0.053501180173092064}</t>
+    <t>{479.0: 0.9235911012950446, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380016, 944.0: 0.053501180173092064}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555477, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923826, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458273, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589337, 14.0: 0.0001168513362960028}</t>
+    <t>{492.0: 0.9720846452514066, 97.0: 0.011519836235458273, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589337, 14.0: 0.0001168513362960028}</t>
   </si>
   <si>
     <t>{493.0: 0.9826319305277218, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
@@ -2242,10 +2242,10 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9988226983753236, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
+    <t>{277.0: 0.9637501241434095, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9988226983753236, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2254,7 +2254,7 @@
     <t>{505.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728275, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -2269,13 +2269,13 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 6.684965403471098e-06, 595.0: 1.2187188862029379e-06, 141.0: 1.4283308965035524e-06, 762.0: 8.778482886967026e-08}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.006547732017460619}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124718, 837.0: 0.18177668218752846}</t>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 6.685831586048357e-06, 595.0: 1.2178527036256798e-06, 141.0: 1.428459627150798e-06, 762.0: 8.765609822242554e-08}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
@@ -2311,7 +2311,7 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.8525970077794404, 565.0: 0.13801832220584853, 84.0: 0.009384670014711105}</t>
+    <t>{564.0: 0.8546822294003458, 565.0: 0.13593310058494265, 84.0: 0.009384670014711105}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -2338,13 +2338,13 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.991661402400505, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005054, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{586.0: 0.9929054054054054, 243.0: 0.007094594594594595}</t>
@@ -2356,13 +2356,13 @@
     <t>{589.0: 0.9635931981692132, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571231, 171.0: 0.003365260160497022}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357595, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.05030619533526e-05, 14.0: 6.161610445994601e-07, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588213, 402.0: 0.0008894395353984783, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.005417508426494019, 171.0: 0.003365260160497022}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377087, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.05030619533526e-05, 14.0: 6.161610445994601e-07, 492.0: 3.031470049738695e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334675, 402.0: 0.0008894395353984776, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294206, 599.0: 0.017932683170579104}</t>
@@ -2374,10 +2374,10 @@
     <t>{602.0: 0.9979748886188741, 423.0: 0.0014175779667881733, 577.0: 0.0006075334143377885}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839295, 837.0: 0.1686196130210783, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.759680996969417, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -2404,7 +2404,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665934, 698.0: 0.010908099263703298, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665944, 698.0: 0.010908099263703298, 832.0: 0.14016907553858743}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2413,10 +2413,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.987024483063915, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914439, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025538, 887.0: 0.013046083606791265, 861.0: 0.021528000860446844, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
@@ -2431,9 +2431,6 @@
     <t>{629.0: 0.20385830114630688, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{629.0: 1.0}</t>
   </si>
   <si>
@@ -2464,7 +2461,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.0425170068027211}</t>
@@ -2479,13 +2476,13 @@
     <t>{692.0: 0.9612552033301316, 110.0: 0.03874479666986872}</t>
   </si>
   <si>
-    <t>{86.0: 0.9518932703057184, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.23020500067043e-07, 623.0: 8.137321532264156e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.951893270305719, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652261, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063285, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.228119652057989e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2494,7 +2491,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.987452948557089, 481.0: 0.01254705144291092}</t>
+    <t>{704.0: 0.987452948557089, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2506,13 +2503,13 @@
     <t>{730.0: 0.8502549837737597, 289.0: 0.14974501622624012}</t>
   </si>
   <si>
-    <t>{888.0: 0.864761506793347, 73.0: 0.13523849320665327}</t>
+    <t>{888.0: 0.8647924498870714, 73.0: 0.13520755011292845}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851533, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -2521,7 +2518,7 @@
     <t>{739.0: 0.9994516792323509, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
   </si>
   <si>
     <t>{741.0: 0.8859583153113907, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
@@ -2533,13 +2530,13 @@
     <t>{746.0: 0.9899854627685352, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
-    <t>{298.0: 0.562630917469627, 476.0: 0.2037440832007895, 595.0: 0.03714406091316109, 534.0: 0.19648093841642233}</t>
+    <t>{298.0: 0.562630917469627, 476.0: 0.20377048267549688, 595.0: 0.03711766143845381, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2557,43 +2554,43 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009007, 762.0: 0.05790113999909886}</t>
+    <t>{141.0: 0.9421837681943135, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571427, 410.0: 0.01365334274537486, 729.0: 0.0059895143974822785}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9872276603169209, 493.0: 0.012550508800140112, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
+    <t>{770.0: 0.9801712483100496, 410.0: 0.013782554190914696, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169204, 493.0: 0.01255050880014012, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.01962816851591652, 184.0: 0.001549191591910711, 593.0: 0.0020408724394157638, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.0319906080317575e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523235, 81.0: 0.0003490904449492977, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972542, 171.0: 0.01913116741521325, 184.0: 0.0015373358112421682, 593.0: 0.0019984907361196625, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.0319906080317575e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523235, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434097, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214653, 246.0: 0.05736685787853455}</t>
+    <t>{789.0: 0.9426975115915952, 246.0: 0.05730248840840525}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2608,52 +2605,52 @@
     <t>{834.0: 0.9681697612732095, 210.0: 0.03162121602224349, 82.0: 4.5723716619645626e-05, 788.0: 0.00016329898792730586}</t>
   </si>
   <si>
-    <t>{835.0: 0.9854027219869264, 836.0: 0.00954570992214585, 756.0: 0.005051568090928225}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7963103836559645, 486.0: 0.09037248577453545, 604.0: 0.09426570048531795, 980.0: 0.01905143008418187}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.8986196061801565, 19.0: 0.08849300800794795, 423.0: 0.012887385811895665}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{835.0: 0.9850655253365121, 836.0: 0.009882906572559542, 756.0: 0.005051568090928225}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597999, 835.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.79630082803911, 486.0: 0.09037248577453545, 604.0: 0.09427525610217233, 980.0: 0.01905143008418187}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.8986196061801565, 19.0: 0.08849300800794795, 423.0: 0.012887385811895666}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415287, 606.0: 0.00433721875847113}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305082, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743714}</t>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525656}</t>
   </si>
   <si>
     <t>{851.0: 0.7041613012602975, 7.0: 0.2958386987397023}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290922, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796245, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323129, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527883}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9907006998347077, 253.0: 0.0007238184843798091, 490.0: 0.008453820911291304, 619.0: 0.00012004347186266865, 887.0: 1.617297758973283e-06}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.848792607179624, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310048, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.994730730308541, 298.0: 0.005269269691458645}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9906917700310797, 253.0: 0.0007238119601521299, 490.0: 0.008462764860626144, 619.0: 0.00012003110616717065, 887.0: 1.6220419752320362e-06}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2665,7 +2662,7 @@
     <t>{886.0: 0.9906196327123794, 531.0: 0.009182424896677302, 262.0: 0.00018743217549493918, 442.0: 1.051021544831435e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9985590569313146, 834.0: 0.0008798970965816699, 619.0: 0.0005488344953339268, 861.0: 1.2202561423636924e-05, 253.0: 8.915345993681083e-09}</t>
+    <t>{887.0: 0.9985718767403096, 834.0: 0.0008670989779753015, 619.0: 0.0005487779598127294, 861.0: 1.223738111667056e-05, 253.0: 8.940785702608694e-09}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2692,16 +2689,16 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.9950083194675541, 687.0: 0.003523341267032718, 534.0: 0.00146096186074179, 174.0: 7.377404671415714e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410216, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{542.0: 0.9950083194675541, 687.0: 0.003530060801112065, 534.0: 0.0014541497986687237, 174.0: 7.469932665135074e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152104, 110.0: 0.09572201278478935}</t>
   </si>
   <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722653}</t>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.2184317511011622}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2713,28 +2710,28 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9925845578271281, 297.0: 0.005990275426909785, 857.0: 0.0014251667459625362}</t>
+    <t>{298.0: 0.9927157970888625, 297.0: 0.005859444871573596, 857.0: 0.001424758039564063}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968304, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854248, 887.0: 0.06836565552205066, 834.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9381917012249766, 762.0: 0.05766100708217408, 263.0: 0.004141495125086512, 595.0: 5.7965677625520235e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955247, 922.0: 0.16918576018906858}</t>
+    <t>{922.0: 0.9315741024854248, 887.0: 0.06836653174288196, 834.0: 5.936577169307048e-05}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9382762572793439, 762.0: 0.057576451027807424, 263.0: 0.004141495551461485, 595.0: 5.796141387578683e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142148, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215624, 108.0: 0.0017460566474922735, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.4444699931840697, 702.0: 0.5210941826700205, 299.0: 0.03443582414590989}</t>
+    <t>{932.0: 0.9982325910215624, 108.0: 0.0017460566474922726, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.44418159074975416, 702.0: 0.521382585104336, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2743,28 +2740,28 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471717, 171.0: 0.003293328528655217, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5161706511015557, 206.0: 0.48246853124415306, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{593.0: 0.9916176050004197, 171.0: 0.003293336475407617, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.501426490651451, 206.0: 0.4966823270439595, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.1081245466200308, 848.0: 0.16042594361443507, 707.0: 0.000913674097471865}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972913, 848.0: 0.18445892626852106, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382853, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587604, 494.0: 0.09946442234123953}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.0462311557788945}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786257, 494.0: 0.09923664122137406}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.06212748441651744}</t>
@@ -2773,7 +2770,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601318, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{782.0: 0.9504155918601318, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
@@ -2782,13 +2779,13 @@
     <t>{980.0: 0.9675586784272687, 840.0: 0.03244132157273135}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.404518558364712}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031136, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112361}</t>
+    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112355}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372654, 729.0: 0.3049207329627342}</t>
@@ -7225,7 +7222,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7236,7 +7233,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7280,7 +7277,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7291,7 +7288,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7324,7 +7321,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7335,7 +7332,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7346,7 +7343,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7357,7 +7354,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7368,7 +7365,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7379,7 +7376,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7390,7 +7387,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7401,7 +7398,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7412,7 +7409,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7423,7 +7420,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7434,7 +7431,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7445,7 +7442,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7467,7 +7464,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7478,7 +7475,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7489,7 +7486,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7511,7 +7508,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7522,7 +7519,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7533,7 +7530,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7555,7 +7552,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7566,7 +7563,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7588,7 +7585,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7610,7 +7607,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7621,7 +7618,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7643,7 +7640,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7654,7 +7651,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7676,7 +7673,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7687,7 +7684,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7698,7 +7695,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7709,7 +7706,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7720,7 +7717,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7742,7 +7739,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7753,7 +7750,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7786,7 +7783,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7808,7 +7805,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7841,7 +7838,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7852,7 +7849,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7863,7 +7860,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7885,7 +7882,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7896,7 +7893,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7907,7 +7904,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7918,7 +7915,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7951,7 +7948,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7973,7 +7970,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7995,7 +7992,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -8006,7 +8003,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -8050,7 +8047,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -8072,7 +8069,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -8083,7 +8080,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -8105,7 +8102,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -8116,7 +8113,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -8127,7 +8124,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -8138,7 +8135,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -8149,7 +8146,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8160,7 +8157,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8171,7 +8168,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -8182,7 +8179,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -8193,7 +8190,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8204,7 +8201,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -8215,7 +8212,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8226,7 +8223,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8237,7 +8234,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8259,7 +8256,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8281,7 +8278,7 @@
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8292,7 +8289,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8336,7 +8333,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8358,7 +8355,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8369,7 +8366,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8380,7 +8377,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8391,7 +8388,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8402,7 +8399,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8435,7 +8432,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8446,7 +8443,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8479,7 +8476,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8490,7 +8487,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8501,7 +8498,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8523,7 +8520,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8534,7 +8531,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8545,7 +8542,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8556,7 +8553,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8600,7 +8597,7 @@
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8622,7 +8619,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8633,7 +8630,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8644,7 +8641,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8655,7 +8652,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8666,7 +8663,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8677,7 +8674,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8688,7 +8685,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8699,7 +8696,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8721,7 +8718,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8732,7 +8729,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8743,7 +8740,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8754,7 +8751,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8765,7 +8762,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8776,7 +8773,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8798,7 +8795,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8809,7 +8806,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8842,7 +8839,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8875,7 +8872,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8886,7 +8883,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8897,7 +8894,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8908,7 +8905,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8919,7 +8916,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8930,7 +8927,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8952,7 +8949,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8963,7 +8960,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8985,7 +8982,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8996,7 +8993,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9007,7 +9004,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9018,7 +9015,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9029,7 +9026,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9040,7 +9037,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9062,7 +9059,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9073,7 +9070,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9095,7 +9092,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9106,7 +9103,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9117,7 +9114,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9128,7 +9125,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9139,7 +9136,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -9150,7 +9147,7 @@
         <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -9161,7 +9158,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -9172,7 +9169,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="548" spans="1:3">
